--- a/supportTables.xlsx
+++ b/supportTables.xlsx
@@ -3917,7 +3917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3926,6 +3926,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21157,7 +21160,7 @@
   <dimension ref="A1:I803"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23331,7 +23334,7 @@
       <c r="C89">
         <v>0</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="6">
         <v>905</v>
       </c>
       <c r="E89" t="s">
@@ -23357,7 +23360,7 @@
       <c r="C90">
         <v>-1</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="6">
         <v>915</v>
       </c>
       <c r="E90" t="s">
@@ -23383,7 +23386,7 @@
       <c r="C91">
         <v>-2</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="6">
         <v>925</v>
       </c>
       <c r="E91" t="s">
@@ -27612,7 +27615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I801"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A68" workbookViewId="0">
       <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>

--- a/supportTables.xlsx
+++ b/supportTables.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14901" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14904" uniqueCount="1287">
   <si>
     <t>try again. Input problem</t>
   </si>
@@ -3925,10 +3925,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13459,14 +13459,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -21160,7 +21160,7 @@
   <dimension ref="A1:I803"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23334,8 +23334,8 @@
       <c r="C89">
         <v>0</v>
       </c>
-      <c r="D89" s="6">
-        <v>905</v>
+      <c r="D89" s="5" t="s">
+        <v>1074</v>
       </c>
       <c r="E89" t="s">
         <v>135</v>
@@ -23360,8 +23360,8 @@
       <c r="C90">
         <v>-1</v>
       </c>
-      <c r="D90" s="6">
-        <v>915</v>
+      <c r="D90" s="5" t="s">
+        <v>1082</v>
       </c>
       <c r="E90" t="s">
         <v>135</v>
@@ -23386,8 +23386,8 @@
       <c r="C91">
         <v>-2</v>
       </c>
-      <c r="D91" s="6">
-        <v>925</v>
+      <c r="D91" s="5" t="s">
+        <v>1090</v>
       </c>
       <c r="E91" t="s">
         <v>135</v>
@@ -27441,6 +27441,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D89:D91" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
